--- a/result/gr100_04_simulated/details.xlsx
+++ b/result/gr100_04_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7700304985046387</v>
+        <v>0.7128567695617676</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1684.020841231568</v>
+        <v>1725.274415146134</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07678100670819538</v>
+        <v>0.07714720742576983</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0600208934687124</v>
+        <v>0.05855277118619816</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05187704178386072</v>
+        <v>0.05301077648562695</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04613379813730554</v>
+        <v>0.04646098188441308</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04314055619938314</v>
+        <v>0.0448462350163345</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04173456833654181</v>
+        <v>0.04107815679574332</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03976320289051521</v>
+        <v>0.03992018699727849</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03787995133662294</v>
+        <v>0.03930612381589912</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03647422942727704</v>
+        <v>0.03732936222220197</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03522033659430603</v>
+        <v>0.03657275702526683</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0350822593625203</v>
+        <v>0.03613035294883613</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03454912846696761</v>
+        <v>0.03534876826267415</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03414239998703453</v>
+        <v>0.03472844916699373</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03373866217056608</v>
+        <v>0.03447078037027117</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0334299314741545</v>
+        <v>0.03425956795038169</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03331568195235263</v>
+        <v>0.03398791345690835</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03325081466953012</v>
+        <v>0.03386674289939845</v>
       </c>
       <c r="W2" t="n">
-        <v>0.03303038280480507</v>
+        <v>0.03365577351694862</v>
       </c>
       <c r="X2" t="n">
-        <v>0.03283657428717344</v>
+        <v>0.03365577351694862</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.03282691698307149</v>
+        <v>0.03363108021727355</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7750084400177002</v>
+        <v>0.8094415664672852</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1679.338939865482</v>
+        <v>1658.702412027558</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07812027180770653</v>
+        <v>0.07993603317253202</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06375951757056743</v>
+        <v>0.0600373871715624</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05250764221931606</v>
+        <v>0.05499061662251244</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04846535304352133</v>
+        <v>0.04898080373424343</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04380884330292902</v>
+        <v>0.04566936303030171</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04377995258695612</v>
+        <v>0.04175216857630489</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0407918259203362</v>
+        <v>0.03917546860501377</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03845496425357414</v>
+        <v>0.03799240527285993</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03779539877390348</v>
+        <v>0.03722204659710953</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03668639297366329</v>
+        <v>0.03614261932957002</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03511345417926608</v>
+        <v>0.03508027402640844</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.03431882517876376</v>
+        <v>0.03423759529042681</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03370224272483315</v>
+        <v>0.03402763590101018</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03348359928468832</v>
+        <v>0.03336594890418419</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03348359928468832</v>
+        <v>0.03317061747940166</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03316956810268714</v>
+        <v>0.03277150475498756</v>
       </c>
       <c r="V3" t="n">
-        <v>0.03307281161439928</v>
+        <v>0.0326343308456293</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03302704836026632</v>
+        <v>0.03247985111898834</v>
       </c>
       <c r="X3" t="n">
-        <v>0.03290126110765576</v>
+        <v>0.03247985111898834</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03273565184922966</v>
+        <v>0.03233338035141438</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.725961446762085</v>
+        <v>0.7343530654907227</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1717.638442795313</v>
+        <v>1708.415277644104</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07842381546307227</v>
+        <v>0.07606826902394109</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06403206340476945</v>
+        <v>0.06109773272867288</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05458928057442275</v>
+        <v>0.05391789002138476</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04967611796308328</v>
+        <v>0.04702797443863287</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04310497506953827</v>
+        <v>0.04559992039178696</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04167019680714053</v>
+        <v>0.04253952008099317</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03959923294564623</v>
+        <v>0.04002223933341751</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03775536897666927</v>
+        <v>0.03802215979607194</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03677004286263487</v>
+        <v>0.03712689967891258</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03634459282920346</v>
+        <v>0.03615670364545857</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03589548293144499</v>
+        <v>0.03584115536853046</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03513775348154845</v>
+        <v>0.03545351742542135</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03496350579989797</v>
+        <v>0.0347461991067895</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03438345685751593</v>
+        <v>0.03434042495901449</v>
       </c>
       <c r="T4" t="n">
-        <v>0.03438345685751593</v>
+        <v>0.03417704843906031</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03411119550706154</v>
+        <v>0.03397376352729545</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03376666390101258</v>
+        <v>0.03365718583948557</v>
       </c>
       <c r="W4" t="n">
-        <v>0.03366191508009132</v>
+        <v>0.03357436909643202</v>
       </c>
       <c r="X4" t="n">
-        <v>0.03352104032639208</v>
+        <v>0.03345316569715985</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.03348223085370979</v>
+        <v>0.03330244205933926</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7090251445770264</v>
+        <v>0.7343335151672363</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1691.315212199203</v>
+        <v>1693.299554676385</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08006295396864703</v>
+        <v>0.07725229382936318</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06532880503328803</v>
+        <v>0.06224267556445609</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05849337874534941</v>
+        <v>0.05337554943318661</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05056543204921508</v>
+        <v>0.04813063474834807</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04655166555067389</v>
+        <v>0.04411049026703234</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04184771205006645</v>
+        <v>0.04157367011588168</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04084010427990453</v>
+        <v>0.03937308822630312</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03895230880296849</v>
+        <v>0.03793309016194655</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03687031306620164</v>
+        <v>0.03669218826340355</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03581613410378229</v>
+        <v>0.03617825122849138</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03480669649781773</v>
+        <v>0.03534500346699983</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03448574554422846</v>
+        <v>0.03486109752489246</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03415296534807648</v>
+        <v>0.03437229913363837</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03390396706002789</v>
+        <v>0.03379274364108814</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03351592844882182</v>
+        <v>0.0337254397876894</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03341533901428075</v>
+        <v>0.03346200741746601</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03325199261698891</v>
+        <v>0.03335871451347492</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03305955891325252</v>
+        <v>0.03318696676778664</v>
       </c>
       <c r="X5" t="n">
-        <v>0.03305955891325252</v>
+        <v>0.03300778859018293</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.03296910745027685</v>
+        <v>0.03300778859018293</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7650105953216553</v>
+        <v>0.7187759876251221</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1784.730695342814</v>
+        <v>1704.847021420177</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07613032190529624</v>
+        <v>0.07794159007063568</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06176444706515128</v>
+        <v>0.06329787779973907</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05552719098180817</v>
+        <v>0.05550485021193578</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04990182787929217</v>
+        <v>0.0478588651650704</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04782159614669278</v>
+        <v>0.045242900820936</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04370325680415495</v>
+        <v>0.04234436538865143</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04312049870079582</v>
+        <v>0.03958260295335758</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04091507817113461</v>
+        <v>0.03872685471497382</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03952472431371849</v>
+        <v>0.03754319307850806</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0390812227353453</v>
+        <v>0.03675848115232794</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03822721060829642</v>
+        <v>0.0356983340963338</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.03721085589863245</v>
+        <v>0.0350778915528709</v>
       </c>
       <c r="R6" t="n">
-        <v>0.03665932148903434</v>
+        <v>0.03462047877221776</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03633738005851499</v>
+        <v>0.03432666219765652</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03553345628076004</v>
+        <v>0.03395924391796412</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03514995586022689</v>
+        <v>0.03376242267105163</v>
       </c>
       <c r="V6" t="n">
-        <v>0.03512791361242393</v>
+        <v>0.03359472030223437</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0349241940629569</v>
+        <v>0.03342741820246359</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0348379641404621</v>
+        <v>0.03331135722652187</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.03479007203397298</v>
+        <v>0.03323288540780071</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7330200672149658</v>
+        <v>0.7030963897705078</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1767.637486298609</v>
+        <v>1728.472235158273</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07950274333575065</v>
+        <v>0.07940480848271377</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06045522171611686</v>
+        <v>0.06451254469356596</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05254456485102544</v>
+        <v>0.05549503521488579</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04642464259682964</v>
+        <v>0.05103093036727432</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0453733964156443</v>
+        <v>0.04610768096234179</v>
       </c>
       <c r="K7" t="n">
-        <v>0.044411183439876</v>
+        <v>0.04299541782844442</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04192141777245185</v>
+        <v>0.04244156212311004</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04003264483828568</v>
+        <v>0.04055013089345384</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0390282580500074</v>
+        <v>0.03829293635685287</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03817363942921557</v>
+        <v>0.03736744981178072</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03695232520960341</v>
+        <v>0.03621178293317352</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03686554198338963</v>
+        <v>0.0356466010330479</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0361222884857094</v>
+        <v>0.03528309583004246</v>
       </c>
       <c r="S7" t="n">
-        <v>0.035937058163766</v>
+        <v>0.03486234289254527</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03536457486185982</v>
+        <v>0.03442278249858074</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03510005531179817</v>
+        <v>0.03413150379194606</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03485661643061382</v>
+        <v>0.03402147642345688</v>
       </c>
       <c r="W7" t="n">
-        <v>0.03475670745541028</v>
+        <v>0.03391831949584324</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03457704857962065</v>
+        <v>0.03382486767686352</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.03445687107794558</v>
+        <v>0.03369341589002481</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.805997371673584</v>
+        <v>0.6875088214874268</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1718.111706035334</v>
+        <v>1680.038990442041</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07387906500192035</v>
+        <v>0.07830246685610548</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06176163679828094</v>
+        <v>0.06283869090745071</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05377388034162664</v>
+        <v>0.0534260486328658</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04903067864988725</v>
+        <v>0.04920615319165435</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04472896175219646</v>
+        <v>0.04484476874954219</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0434757749669445</v>
+        <v>0.04229511819475675</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04103352126642103</v>
+        <v>0.03861381353294233</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03896819832853366</v>
+        <v>0.03691677307593486</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03795053321422287</v>
+        <v>0.03691677307593486</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0366412494571196</v>
+        <v>0.03590062314931426</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03630827496229951</v>
+        <v>0.03485282887654798</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03561962033964745</v>
+        <v>0.03443334513409598</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03496625214315842</v>
+        <v>0.03404450040945926</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03468157651755838</v>
+        <v>0.03360131453048135</v>
       </c>
       <c r="T8" t="n">
-        <v>0.03436515837254468</v>
+        <v>0.03343387376591433</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03402683629138616</v>
+        <v>0.03328303567510473</v>
       </c>
       <c r="V8" t="n">
-        <v>0.03389355954065676</v>
+        <v>0.03304194428298216</v>
       </c>
       <c r="W8" t="n">
-        <v>0.03370602150058877</v>
+        <v>0.03285499395544138</v>
       </c>
       <c r="X8" t="n">
-        <v>0.03357012549513615</v>
+        <v>0.03280799244900118</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0334914562579987</v>
+        <v>0.03274929805929903</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7969648838043213</v>
+        <v>0.703129768371582</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1787.787350744497</v>
+        <v>1775.72829100966</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07824657872801356</v>
+        <v>0.07880690255613798</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06195310139938054</v>
+        <v>0.06506375271980157</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05533868708298621</v>
+        <v>0.05696212099949879</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04998423222103993</v>
+        <v>0.05207712022951443</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0463477277501067</v>
+        <v>0.04578365913553175</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04290179146846451</v>
+        <v>0.04387744728167087</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04125818243790799</v>
+        <v>0.042518893195849</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03969178484362244</v>
+        <v>0.0400060634507805</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03870496298573379</v>
+        <v>0.03861862295610691</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03810781107876583</v>
+        <v>0.03816059024430382</v>
       </c>
       <c r="P9" t="n">
-        <v>0.03712326474416273</v>
+        <v>0.03711314373472037</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.03641984141959351</v>
+        <v>0.03673187201355669</v>
       </c>
       <c r="R9" t="n">
-        <v>0.03638735662178396</v>
+        <v>0.03641237382955771</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03584203282477937</v>
+        <v>0.03602062815042889</v>
       </c>
       <c r="T9" t="n">
-        <v>0.03555839593227506</v>
+        <v>0.03570080141135774</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0353944327668177</v>
+        <v>0.03528960678878811</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0352045131975973</v>
+        <v>0.03505647576158989</v>
       </c>
       <c r="W9" t="n">
-        <v>0.03502341427817992</v>
+        <v>0.03484362310194385</v>
       </c>
       <c r="X9" t="n">
-        <v>0.03492313243921692</v>
+        <v>0.03469003143531075</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0348496559599317</v>
+        <v>0.03461458656938908</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7519683837890625</v>
+        <v>0.7031209468841553</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1733.958136833373</v>
+        <v>1691.703501315402</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07986746094409283</v>
+        <v>0.07842689643623364</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06316094214642565</v>
+        <v>0.0621331276193114</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05361521740472776</v>
+        <v>0.05310217652751625</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0490047694809746</v>
+        <v>0.0483177164363271</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04676202903583284</v>
+        <v>0.04401997426853214</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04194411618270068</v>
+        <v>0.04136099050582896</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03998444291742569</v>
+        <v>0.03995021014167054</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03872204000839438</v>
+        <v>0.03785608032918315</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03781276920583237</v>
+        <v>0.03697074912238177</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03716734697929552</v>
+        <v>0.03568825941113152</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03611722205688984</v>
+        <v>0.03498220847983304</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.03574295705646165</v>
+        <v>0.03469506955567896</v>
       </c>
       <c r="R10" t="n">
-        <v>0.03505028036461226</v>
+        <v>0.03433306585524827</v>
       </c>
       <c r="S10" t="n">
-        <v>0.03491784741553011</v>
+        <v>0.034081061141456</v>
       </c>
       <c r="T10" t="n">
-        <v>0.03469606993202817</v>
+        <v>0.03379302389467552</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03425260899892488</v>
+        <v>0.03356591448854521</v>
       </c>
       <c r="V10" t="n">
-        <v>0.03419997360149771</v>
+        <v>0.03334125803678796</v>
       </c>
       <c r="W10" t="n">
-        <v>0.03388355545520295</v>
+        <v>0.03311105877208755</v>
       </c>
       <c r="X10" t="n">
-        <v>0.03388355545520295</v>
+        <v>0.03303681610980413</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.03380035354451019</v>
+        <v>0.03297667643889671</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7799985408782959</v>
+        <v>0.7031245231628418</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1751.293737253687</v>
+        <v>1653.403176580196</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0775630808858937</v>
+        <v>0.07871652169297166</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0634511173048446</v>
+        <v>0.06354852415053422</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05741295122767934</v>
+        <v>0.05444668228980518</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05146541598575772</v>
+        <v>0.04881723221947781</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04648797139727123</v>
+        <v>0.04491349126484675</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04441164121820407</v>
+        <v>0.04254096343098179</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04271697215576688</v>
+        <v>0.03962420679707412</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04050704862962419</v>
+        <v>0.03842751199838352</v>
       </c>
       <c r="N11" t="n">
-        <v>0.03911730698161603</v>
+        <v>0.03703793615402241</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03813582511008666</v>
+        <v>0.03595121227445278</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03721801392710952</v>
+        <v>0.03471399195533352</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.03685996321267394</v>
+        <v>0.0344641940596746</v>
       </c>
       <c r="R11" t="n">
-        <v>0.03583928922274839</v>
+        <v>0.03370611772310028</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0351367738450796</v>
+        <v>0.03334835980723699</v>
       </c>
       <c r="T11" t="n">
-        <v>0.03502798620727631</v>
+        <v>0.03315031460488575</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03451638553887407</v>
+        <v>0.03272032019017521</v>
       </c>
       <c r="V11" t="n">
-        <v>0.03447700084418204</v>
+        <v>0.03248284800602291</v>
       </c>
       <c r="W11" t="n">
-        <v>0.03438745226015091</v>
+        <v>0.03241957335844484</v>
       </c>
       <c r="X11" t="n">
-        <v>0.03420710449654844</v>
+        <v>0.03231173022168993</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.03413827947862937</v>
+        <v>0.03223008141481862</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr100_04_simulated/details.xlsx
+++ b/result/gr100_04_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7128567695617676</v>
+        <v>1.607001066207886</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1725.274415146134</v>
+        <v>1973.890429266887</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07714720742576983</v>
+        <v>0.08345645117945431</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05855277118619816</v>
+        <v>0.06786062060373141</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05301077648562695</v>
+        <v>0.0614537570010119</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04646098188441308</v>
+        <v>0.05494461140583885</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0448462350163345</v>
+        <v>0.05115609017150262</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04107815679574332</v>
+        <v>0.04871408880806793</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03992018699727849</v>
+        <v>0.04644142098957423</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03930612381589912</v>
+        <v>0.04489241006248255</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03732936222220197</v>
+        <v>0.04257085065188287</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03657275702526683</v>
+        <v>0.04257085065188287</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03613035294883613</v>
+        <v>0.04152764992100125</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03534876826267415</v>
+        <v>0.04084550187709777</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03472844916699373</v>
+        <v>0.04014512118814641</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03447078037027117</v>
+        <v>0.03991046290851418</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03425956795038169</v>
+        <v>0.03950128536558406</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03398791345690835</v>
+        <v>0.03920602850328609</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03386674289939845</v>
+        <v>0.03884451333721058</v>
       </c>
       <c r="W2" t="n">
-        <v>0.03365577351694862</v>
+        <v>0.03864099715114228</v>
       </c>
       <c r="X2" t="n">
-        <v>0.03365577351694862</v>
+        <v>0.03863285103262266</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.03363108021727355</v>
+        <v>0.03847739628200558</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8094415664672852</v>
+        <v>1.63303279876709</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1658.702412027558</v>
+        <v>2014.515077347611</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07993603317253202</v>
+        <v>0.07836976113253634</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0600373871715624</v>
+        <v>0.06396942730775021</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05499061662251244</v>
+        <v>0.05713125856831189</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04898080373424343</v>
+        <v>0.05468053967761684</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04566936303030171</v>
+        <v>0.05094361862009548</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04175216857630489</v>
+        <v>0.04907778822216196</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03917546860501377</v>
+        <v>0.04712413122966248</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03799240527285993</v>
+        <v>0.04430535657609684</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03722204659710953</v>
+        <v>0.04351150647120578</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03614261932957002</v>
+        <v>0.04328628964204857</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03508027402640844</v>
+        <v>0.0420424679302205</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.03423759529042681</v>
+        <v>0.04136415263166243</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03402763590101018</v>
+        <v>0.04020081330373207</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03336594890418419</v>
+        <v>0.04020081330373207</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03317061747940166</v>
+        <v>0.03979251628099797</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03277150475498756</v>
+        <v>0.03968849689909708</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0326343308456293</v>
+        <v>0.03943644762289034</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03247985111898834</v>
+        <v>0.03933676917653871</v>
       </c>
       <c r="X3" t="n">
-        <v>0.03247985111898834</v>
+        <v>0.03930644720450959</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03233338035141438</v>
+        <v>0.03926929975336473</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7343530654907227</v>
+        <v>1.569000959396362</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1708.415277644104</v>
+        <v>1999.060721186033</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07606826902394109</v>
+        <v>0.08238323697220018</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06109773272867288</v>
+        <v>0.06808018002366137</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05391789002138476</v>
+        <v>0.05892998329543316</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04702797443863287</v>
+        <v>0.05496894003486948</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04559992039178696</v>
+        <v>0.05204669372541512</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04253952008099317</v>
+        <v>0.0493630929780033</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04002223933341751</v>
+        <v>0.04672208311362328</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03802215979607194</v>
+        <v>0.04480723952004904</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03712689967891258</v>
+        <v>0.04346242808393879</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03615670364545857</v>
+        <v>0.04254142908880976</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03584115536853046</v>
+        <v>0.04169619462146426</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03545351742542135</v>
+        <v>0.04104724378693023</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0347461991067895</v>
+        <v>0.04070207340586722</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03434042495901449</v>
+        <v>0.04013920904257353</v>
       </c>
       <c r="T4" t="n">
-        <v>0.03417704843906031</v>
+        <v>0.03974295238924667</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03397376352729545</v>
+        <v>0.0395117429117357</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03365718583948557</v>
+        <v>0.03935161444010415</v>
       </c>
       <c r="W4" t="n">
-        <v>0.03357436909643202</v>
+        <v>0.03909655044143595</v>
       </c>
       <c r="X4" t="n">
-        <v>0.03345316569715985</v>
+        <v>0.03901713349519429</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.03330244205933926</v>
+        <v>0.03896804524729109</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7343335151672363</v>
+        <v>1.76601505279541</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1693.299554676385</v>
+        <v>1957.336499657174</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07725229382936318</v>
+        <v>0.08332040970381824</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06224267556445609</v>
+        <v>0.06805263263081575</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05337554943318661</v>
+        <v>0.06042311185126605</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04813063474834807</v>
+        <v>0.0542972548434103</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04411049026703234</v>
+        <v>0.05052878850316003</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04157367011588168</v>
+        <v>0.04753851746812396</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03937308822630312</v>
+        <v>0.04584487131679202</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03793309016194655</v>
+        <v>0.04404503857394814</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03669218826340355</v>
+        <v>0.04251195801996977</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03617825122849138</v>
+        <v>0.04132068697631465</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03534500346699983</v>
+        <v>0.04132068697631465</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03486109752489246</v>
+        <v>0.04008240528505153</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03437229913363837</v>
+        <v>0.03973252510869901</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03379274364108814</v>
+        <v>0.03930331442865177</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0337254397876894</v>
+        <v>0.03900467900429944</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03346200741746601</v>
+        <v>0.0387312541202845</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03335871451347492</v>
+        <v>0.0386406782294382</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03318696676778664</v>
+        <v>0.03840639619956998</v>
       </c>
       <c r="X5" t="n">
-        <v>0.03300778859018293</v>
+        <v>0.03821959134011822</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.03300778859018293</v>
+        <v>0.03815470759565642</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7187759876251221</v>
+        <v>1.58466362953186</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1704.847021420177</v>
+        <v>1907.604185457702</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07794159007063568</v>
+        <v>0.08190951544406262</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06329787779973907</v>
+        <v>0.06714228489507346</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05550485021193578</v>
+        <v>0.05801011039337731</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0478588651650704</v>
+        <v>0.05500119245494482</v>
       </c>
       <c r="J6" t="n">
-        <v>0.045242900820936</v>
+        <v>0.04904866766873454</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04234436538865143</v>
+        <v>0.04696334980099157</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03958260295335758</v>
+        <v>0.04499816284385403</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03872685471497382</v>
+        <v>0.04301047006232111</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03754319307850806</v>
+        <v>0.04148706175084179</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03675848115232794</v>
+        <v>0.04037169944723953</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0356983340963338</v>
+        <v>0.03973887293405204</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0350778915528709</v>
+        <v>0.0390748271860047</v>
       </c>
       <c r="R6" t="n">
-        <v>0.03462047877221776</v>
+        <v>0.03848682632382926</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03432666219765652</v>
+        <v>0.03823017856429317</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03395924391796412</v>
+        <v>0.03787184661291619</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03376242267105163</v>
+        <v>0.03774446855299713</v>
       </c>
       <c r="V6" t="n">
-        <v>0.03359472030223437</v>
+        <v>0.0374625304218001</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03342741820246359</v>
+        <v>0.03732211898401153</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03331135722652187</v>
+        <v>0.03722718784262591</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.03323288540780071</v>
+        <v>0.0371852667730546</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7030963897705078</v>
+        <v>1.593999147415161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1728.472235158273</v>
+        <v>1979.806861188283</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07940480848271377</v>
+        <v>0.08256413882546727</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06451254469356596</v>
+        <v>0.06445404629527572</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05549503521488579</v>
+        <v>0.05824488330209657</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05103093036727432</v>
+        <v>0.05386955291848522</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04610768096234179</v>
+        <v>0.04868576967742164</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04299541782844442</v>
+        <v>0.04752597622224912</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04244156212311004</v>
+        <v>0.04524267591962723</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04055013089345384</v>
+        <v>0.04377314101677759</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03829293635685287</v>
+        <v>0.0428678976989168</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03736744981178072</v>
+        <v>0.04247406257943531</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03621178293317352</v>
+        <v>0.04109912148656076</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0356466010330479</v>
+        <v>0.0407154382395223</v>
       </c>
       <c r="R7" t="n">
-        <v>0.03528309583004246</v>
+        <v>0.04023811562785921</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03486234289254527</v>
+        <v>0.03990933955861808</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03442278249858074</v>
+        <v>0.03941630212269431</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03413150379194606</v>
+        <v>0.03934439423358857</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03402147642345688</v>
+        <v>0.03900405803973058</v>
       </c>
       <c r="W7" t="n">
-        <v>0.03391831949584324</v>
+        <v>0.03880862967531601</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03382486767686352</v>
+        <v>0.03867189766348188</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.03369341589002481</v>
+        <v>0.03859272633895287</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6875088214874268</v>
+        <v>1.740999221801758</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1680.038990442041</v>
+        <v>1949.22379304587</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07830246685610548</v>
+        <v>0.08067436146094809</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06283869090745071</v>
+        <v>0.06711024690728068</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0534260486328658</v>
+        <v>0.06046169731150988</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04920615319165435</v>
+        <v>0.05406550902210983</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04484476874954219</v>
+        <v>0.05042628068437714</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04229511819475675</v>
+        <v>0.04624426572072349</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03861381353294233</v>
+        <v>0.04476184784393068</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03691677307593486</v>
+        <v>0.04292203071439091</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03691677307593486</v>
+        <v>0.04177365503538249</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03590062314931426</v>
+        <v>0.04044989145849479</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03485282887654798</v>
+        <v>0.04025147629179446</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03443334513409598</v>
+        <v>0.03976172952539592</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03404450040945926</v>
+        <v>0.03944991198266924</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03360131453048135</v>
+        <v>0.03901006154911706</v>
       </c>
       <c r="T8" t="n">
-        <v>0.03343387376591433</v>
+        <v>0.03878513591460542</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03328303567510473</v>
+        <v>0.03845583347581545</v>
       </c>
       <c r="V8" t="n">
-        <v>0.03304194428298216</v>
+        <v>0.03842366751751592</v>
       </c>
       <c r="W8" t="n">
-        <v>0.03285499395544138</v>
+        <v>0.03815031277459</v>
       </c>
       <c r="X8" t="n">
-        <v>0.03280799244900118</v>
+        <v>0.03806765605121677</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03274929805929903</v>
+        <v>0.03799656516658616</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.703129768371582</v>
+        <v>1.726998805999756</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1775.72829100966</v>
+        <v>1904.716559579532</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07880690255613798</v>
+        <v>0.07948649683433064</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06506375271980157</v>
+        <v>0.06715619517809811</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05696212099949879</v>
+        <v>0.05897172152490451</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05207712022951443</v>
+        <v>0.05058738102345852</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04578365913553175</v>
+        <v>0.04888273747299154</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04387744728167087</v>
+        <v>0.04635040676633503</v>
       </c>
       <c r="L9" t="n">
-        <v>0.042518893195849</v>
+        <v>0.04519827840495585</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0400060634507805</v>
+        <v>0.04315172542178676</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03861862295610691</v>
+        <v>0.04234512075079135</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03816059024430382</v>
+        <v>0.04067897585906567</v>
       </c>
       <c r="P9" t="n">
-        <v>0.03711314373472037</v>
+        <v>0.03955632721906479</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.03673187201355669</v>
+        <v>0.03890572970457481</v>
       </c>
       <c r="R9" t="n">
-        <v>0.03641237382955771</v>
+        <v>0.03876070864884971</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03602062815042889</v>
+        <v>0.03800016457913042</v>
       </c>
       <c r="T9" t="n">
-        <v>0.03570080141135774</v>
+        <v>0.0378108013277523</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03528960678878811</v>
+        <v>0.03767031874011723</v>
       </c>
       <c r="V9" t="n">
-        <v>0.03505647576158989</v>
+        <v>0.03745996182362595</v>
       </c>
       <c r="W9" t="n">
-        <v>0.03484362310194385</v>
+        <v>0.0372360535791456</v>
       </c>
       <c r="X9" t="n">
-        <v>0.03469003143531075</v>
+        <v>0.03714864181381117</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.03461458656938908</v>
+        <v>0.03712897776958152</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7031209468841553</v>
+        <v>1.577041387557983</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1691.703501315402</v>
+        <v>1972.100557205593</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07842689643623364</v>
+        <v>0.08372771692623537</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0621331276193114</v>
+        <v>0.06758183360786713</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05310217652751625</v>
+        <v>0.05836315317037141</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0483177164363271</v>
+        <v>0.05496803551361742</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04401997426853214</v>
+        <v>0.05255110243240427</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04136099050582896</v>
+        <v>0.04747353973602018</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03995021014167054</v>
+        <v>0.04567865779216917</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03785608032918315</v>
+        <v>0.04455062161708696</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03697074912238177</v>
+        <v>0.04303131039093363</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03568825941113152</v>
+        <v>0.04212724951933181</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03498220847983304</v>
+        <v>0.04094492584932839</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.03469506955567896</v>
+        <v>0.04052744560634285</v>
       </c>
       <c r="R10" t="n">
-        <v>0.03433306585524827</v>
+        <v>0.04003455020277479</v>
       </c>
       <c r="S10" t="n">
-        <v>0.034081061141456</v>
+        <v>0.03949785940811568</v>
       </c>
       <c r="T10" t="n">
-        <v>0.03379302389467552</v>
+        <v>0.03932148357491735</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03356591448854521</v>
+        <v>0.03897042307001688</v>
       </c>
       <c r="V10" t="n">
-        <v>0.03334125803678796</v>
+        <v>0.03871348596102207</v>
       </c>
       <c r="W10" t="n">
-        <v>0.03311105877208755</v>
+        <v>0.03863329151853557</v>
       </c>
       <c r="X10" t="n">
-        <v>0.03303681610980413</v>
+        <v>0.03849591014061121</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.03297667643889671</v>
+        <v>0.03844250598841311</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7031245231628418</v>
+        <v>1.520999431610107</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1653.403176580196</v>
+        <v>2011.696667030641</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07871652169297166</v>
+        <v>0.08171356825910424</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06354852415053422</v>
+        <v>0.06342189551528188</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05444668228980518</v>
+        <v>0.05923350671507112</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04881723221947781</v>
+        <v>0.05471760018887832</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04491349126484675</v>
+        <v>0.05048803707205774</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04254096343098179</v>
+        <v>0.04747542440926444</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03962420679707412</v>
+        <v>0.04624937630345609</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03842751199838352</v>
+        <v>0.04461232773506477</v>
       </c>
       <c r="N11" t="n">
-        <v>0.03703793615402241</v>
+        <v>0.043073971710505</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03595121227445278</v>
+        <v>0.04224704496665176</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03471399195533352</v>
+        <v>0.04161649295999655</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0344641940596746</v>
+        <v>0.04139150959832033</v>
       </c>
       <c r="R11" t="n">
-        <v>0.03370611772310028</v>
+        <v>0.04070138153601927</v>
       </c>
       <c r="S11" t="n">
-        <v>0.03334835980723699</v>
+        <v>0.04059088259500328</v>
       </c>
       <c r="T11" t="n">
-        <v>0.03315031460488575</v>
+        <v>0.04018597076290401</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03272032019017521</v>
+        <v>0.03986864766811057</v>
       </c>
       <c r="V11" t="n">
-        <v>0.03248284800602291</v>
+        <v>0.0395967396055722</v>
       </c>
       <c r="W11" t="n">
-        <v>0.03241957335844484</v>
+        <v>0.03936846783190044</v>
       </c>
       <c r="X11" t="n">
-        <v>0.03231173022168993</v>
+        <v>0.03936846783190044</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.03223008141481862</v>
+        <v>0.0392143599811041</v>
       </c>
     </row>
   </sheetData>
